--- a/Messdaten/metadata.xlsx
+++ b/Messdaten/metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Experiment</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -130,12 +133,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +198,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,29 +219,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T20" activeCellId="0" sqref="T20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -306,7 +303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>20</v>
       </c>
@@ -324,7 +321,7 @@
       </c>
       <c r="F2" s="2" t="n">
         <f aca="false">(E2-B2)*24</f>
-        <v>0.383333333360497</v>
+        <v>0.383333335106727</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0.5</v>
@@ -372,7 +369,7 @@
         <v>0.00276</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>21</v>
       </c>
@@ -390,7 +387,7 @@
       </c>
       <c r="F3" s="2" t="n">
         <f aca="false">(E3-B3)*24</f>
-        <v>0.133333333418705</v>
+        <v>0.133333332021721</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0.5</v>
@@ -438,7 +435,7 @@
         <v>0.00276</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>22</v>
       </c>
@@ -504,7 +501,7 @@
         <v>0.00276</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>23</v>
       </c>
@@ -522,7 +519,7 @@
       </c>
       <c r="F5" s="2" t="n">
         <f aca="false">(E5-B5)*24</f>
-        <v>0.299999999930151</v>
+        <v>0.300000000104774</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0.5</v>
@@ -570,7 +567,7 @@
         <v>0.00276</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>24</v>
       </c>
@@ -633,6 +630,72 @@
         <v>0.0001</v>
       </c>
       <c r="T6" s="5" t="n">
+        <v>0.00276</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44159.4208333333</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>44159.625</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>44160.5</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>44159.4368055556</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">(E7-B7)*24</f>
+        <v>0.383333335106727</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">L7*H7</f>
+        <v>0.672185</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">I7/G7</f>
+        <v>1.34437</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.268874</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">K7*G7</f>
+        <v>5</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="T7" s="0" t="n">
         <v>0.00276</v>
       </c>
     </row>
